--- a/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/Text/Submitting/Refs.xlsx
+++ b/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/Text/Submitting/Refs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,175 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>@amadon1949seventy</t>
+  </si>
+  <si>
+    <t>@banoo2007evaluation</t>
+  </si>
+  <si>
+    <t>@barton_mumin:_2016</t>
+  </si>
+  <si>
+    <t>@bates1995genetic</t>
+  </si>
+  <si>
+    <t>@beaumont2008three</t>
+  </si>
+  <si>
+    <t>@beyer2017blue</t>
+  </si>
+  <si>
+    <t>@bobkov2010tidal</t>
+  </si>
+  <si>
+    <t>@bufalova2005mytilus</t>
+  </si>
+  <si>
+    <t>@chenuil2019problems</t>
+  </si>
+  <si>
+    <t>@currey1974mechanical</t>
+  </si>
+  <si>
+    <t>@der2020unveiling</t>
+  </si>
+  <si>
+    <t>@derjugin1915fauna</t>
+  </si>
+  <si>
+    <t>@derjugin1928fauna</t>
+  </si>
+  <si>
+    <t>@dias2009mytilus</t>
+  </si>
+  <si>
+    <t>@dias2011survey</t>
+  </si>
+  <si>
+    <t>@duarte2020dense</t>
+  </si>
+  <si>
+    <t>@FAO202</t>
+  </si>
+  <si>
+    <t>@fitzpatrick2015hybridization</t>
+  </si>
+  <si>
+    <t>@fraisse2016local</t>
+  </si>
+  <si>
+    <t>@geist2008use</t>
+  </si>
+  <si>
+    <t>@innes1999morphological</t>
+  </si>
+  <si>
+    <t>@katolikova2016genetic</t>
+  </si>
+  <si>
+    <t>@khaitov2018discriminating</t>
+  </si>
+  <si>
+    <t>@kingston2018linking</t>
+  </si>
+  <si>
+    <t>@larrain2019comparison</t>
+  </si>
+  <si>
+    <t>@leeflang2009diagnostic</t>
+  </si>
+  <si>
+    <t>@leeflang2013variation</t>
+  </si>
+  <si>
+    <t>@lme4</t>
+  </si>
+  <si>
+    <t>@lobel1990recent</t>
+  </si>
+  <si>
+    <t>@mallet1995comparative</t>
+  </si>
+  <si>
+    <t>@mangerud2018holocene</t>
+  </si>
+  <si>
+    <t>@martino2019blue</t>
+  </si>
+  <si>
+    <t>@mcdonald1991allozymes</t>
+  </si>
+  <si>
+    <t>@melzner2011food</t>
+  </si>
+  <si>
+    <t>@michalek2016mytilus</t>
+  </si>
+  <si>
+    <t>@nakagawa_general_2013</t>
+  </si>
+  <si>
+    <t>@Oil2018</t>
+  </si>
+  <si>
+    <t>@padial2010integrative</t>
+  </si>
+  <si>
+    <t>@penney2002comparative</t>
+  </si>
+  <si>
+    <t>@pritchard2000inference</t>
+  </si>
+  <si>
+    <t>@queen2002experimental</t>
+  </si>
+  <si>
+    <t>@R_2019</t>
+  </si>
+  <si>
+    <t>@raj2014faststructure</t>
+  </si>
+  <si>
+    <t>@rawson2001species</t>
+  </si>
+  <si>
+    <t>@rawson2009colonization</t>
+  </si>
+  <si>
+    <t>@ridgway2004genotypes</t>
+  </si>
+  <si>
     <t>@riginos2005invited</t>
   </si>
   <si>
+    <t>@seed1992population</t>
+  </si>
+  <si>
+    <t>@simon2019local</t>
+  </si>
+  <si>
+    <t>@simon2020replicated</t>
+  </si>
+  <si>
+    <t>@smietanka2017disruption</t>
+  </si>
+  <si>
+    <t>@steinacher2009imminent</t>
+  </si>
+  <si>
+    <t>@strelkov2017temporal</t>
+  </si>
+  <si>
+    <t>@stuckas2017combining</t>
+  </si>
+  <si>
+    <t>@telesca2018blue</t>
+  </si>
+  <si>
     <t>@vainola2011mytilus</t>
   </si>
   <si>
-    <t>@rawson2009colonization</t>
+    <t>@vervoenen2000mytilus</t>
   </si>
   <si>
     <t>@wenne2016first</t>
@@ -37,181 +199,19 @@
     <t>@wenne2020trans</t>
   </si>
   <si>
-    <t>@mcdonald1991allozymes</t>
-  </si>
-  <si>
-    <t>@mallet1995comparative</t>
-  </si>
-  <si>
-    <t>@innes1999morphological</t>
-  </si>
-  <si>
-    <t>@telesca2018blue</t>
-  </si>
-  <si>
-    <t>@seed1992population</t>
-  </si>
-  <si>
-    <t>@larrain2019comparison</t>
-  </si>
-  <si>
-    <t>@mangerud2018holocene</t>
-  </si>
-  <si>
-    <t>@katolikova2016genetic</t>
-  </si>
-  <si>
-    <t>@michalek2016mytilus</t>
-  </si>
-  <si>
-    <t>@beyer2017blue</t>
-  </si>
-  <si>
-    <t>@lobel1990recent</t>
-  </si>
-  <si>
-    <t>@beaumont2008three</t>
-  </si>
-  <si>
-    <t>@dias2011survey</t>
-  </si>
-  <si>
-    <t>@penney2002comparative</t>
-  </si>
-  <si>
-    <t>@khaitov2018discriminating</t>
-  </si>
-  <si>
-    <t>@padial2010integrative</t>
-  </si>
-  <si>
-    <t>@banoo2007evaluation</t>
-  </si>
-  <si>
-    <t>@derjugin1928fauna</t>
-  </si>
-  <si>
-    <t>@derjugin1915fauna</t>
-  </si>
-  <si>
-    <t>@bobkov2010tidal</t>
-  </si>
-  <si>
-    <t>@kingston2018linking</t>
-  </si>
-  <si>
-    <t>@martino2019blue</t>
-  </si>
-  <si>
-    <t>@strelkov2017temporal</t>
-  </si>
-  <si>
-    <t>@pritchard2000inference</t>
-  </si>
-  <si>
-    <t>@raj2014faststructure</t>
-  </si>
-  <si>
-    <t>@ridgway2004genotypes</t>
-  </si>
-  <si>
-    <t>@dias2009mytilus</t>
-  </si>
-  <si>
-    <t>@simon2020replicated</t>
-  </si>
-  <si>
-    <t>@leeflang2009diagnostic</t>
-  </si>
-  <si>
-    <t>@leeflang2013variation</t>
-  </si>
-  <si>
-    <t>@geist2008use</t>
-  </si>
-  <si>
-    <t>@der2020unveiling</t>
+    <t>@wiens2000species</t>
+  </si>
+  <si>
+    <t>@wilson2018new</t>
+  </si>
+  <si>
+    <t>@zenkevitch1963biology</t>
+  </si>
+  <si>
+    <t>@Zolotar2002</t>
   </si>
   <si>
     <t>@zolotarev1997relations</t>
-  </si>
-  <si>
-    <t>@fraisse2016local</t>
-  </si>
-  <si>
-    <t>@smietanka2017disruption</t>
-  </si>
-  <si>
-    <t>@simon2019local</t>
-  </si>
-  <si>
-    <t>@currey1974mechanical</t>
-  </si>
-  <si>
-    <t>@steinacher2009imminent</t>
-  </si>
-  <si>
-    <t>@zenkevitch1963biology</t>
-  </si>
-  <si>
-    <t>@bufalova2005mytilus</t>
-  </si>
-  <si>
-    <t>@duarte2020dense</t>
-  </si>
-  <si>
-    <t>@melzner2011food</t>
-  </si>
-  <si>
-    <t>@bates1995genetic</t>
-  </si>
-  <si>
-    <t>@rawson2001species</t>
-  </si>
-  <si>
-    <t>@stuckas2017combining</t>
-  </si>
-  <si>
-    <t>@vervoenen2000mytilus</t>
-  </si>
-  <si>
-    <t>@wiens2000species</t>
-  </si>
-  <si>
-    <t>@wilson2018new</t>
-  </si>
-  <si>
-    <t>@amadon1949seventy</t>
-  </si>
-  <si>
-    <t>@chenuil2019problems</t>
-  </si>
-  <si>
-    <t>@fitzpatrick2015hybridization</t>
-  </si>
-  <si>
-    <t>@R_2019</t>
-  </si>
-  <si>
-    <t>@Zolotar2002</t>
-  </si>
-  <si>
-    <t>@FAO202</t>
-  </si>
-  <si>
-    <t>@Oil2018</t>
-  </si>
-  <si>
-    <t>@lme4</t>
-  </si>
-  <si>
-    <t>@nakagawa_general_2013</t>
-  </si>
-  <si>
-    <t>@barton_mumin:_2016</t>
-  </si>
-  <si>
-    <t>@queen2002experimental</t>
   </si>
 </sst>
 </file>
@@ -219,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -239,55 +239,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,8 +261,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -309,6 +324,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,48 +345,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,6 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,175 +410,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,35 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,6 +602,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -645,17 +642,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,148 +688,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -837,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1202,287 +1202,287 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -1519,6 +1519,9 @@
   <autoFilter ref="A1:A69">
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:A69">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/Text/Submitting/Refs.xlsx
+++ b/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/Text/Submitting/Refs.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$66</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Ref</t>
   </si>
@@ -219,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -248,6 +248,75 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,77 +330,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,38 +363,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,61 +392,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,109 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,17 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -645,41 +678,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,148 +688,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1422,101 +1422,86 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A69">
+  <autoFilter ref="A1:A66">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:A69">
